--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_SendMoney_Verify.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_SendMoney_Verify.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>As a user I want to verify schedule management from My Account</t>
-  </si>
-  <si>
     <t>db_val</t>
   </si>
   <si>
@@ -42,6 +39,21 @@
   </si>
   <si>
     <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 0 and TM.BILL_BENEFICIARY_ID = 0</t>
+  </si>
+  <si>
+    <t>As a user I want to verify schedule management Mng_Send_Verify</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>As a user I want to verify schedule management but no schedule set Mng_Send_Invalid_Verify</t>
   </si>
 </sst>
 </file>
@@ -359,39 +371,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="245.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="245.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
